--- a/app/static/xls_template/LoadList_Template.xlsx
+++ b/app/static/xls_template/LoadList_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProject\Flask_web\app\xls_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProject\EDI_APP_TEST\app\static\xls_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654FE01D-805B-4AB8-97BB-C8A8CEEE4F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF9C76A-7E6A-4938-8596-E1212BF43164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B5D09C3-D56E-4C7D-BC27-746518629B8D}"/>
   </bookViews>
@@ -58,12 +58,6 @@
     <t>OPS (3 LETTERS)</t>
   </si>
   <si>
-    <t>POL (6 LETTERS)</t>
-  </si>
-  <si>
-    <t>POD (6 LETTERS)</t>
-  </si>
-  <si>
     <t>FPOD (IF ANY)</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>VENTILATION (UNIT)</t>
   </si>
   <si>
-    <t>TEMP. (C)</t>
-  </si>
-  <si>
     <t>OOG</t>
   </si>
   <si>
@@ -128,6 +119,15 @@
   </si>
   <si>
     <t>USTS5</t>
+  </si>
+  <si>
+    <t>TEMP. ('C)</t>
+  </si>
+  <si>
+    <t>POL (5 LETTERS)</t>
+  </si>
+  <si>
+    <t>POD (5 LETTERS)</t>
   </si>
 </sst>
 </file>
@@ -991,11 +991,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525345FE-1BA1-40A7-8956-6C5BE0744075}">
   <dimension ref="A1:AG146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1035,67 +1038,67 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -1210,7 +1213,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="AE29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="9:31" x14ac:dyDescent="0.3">
@@ -1225,7 +1228,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="AE32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="9:31" x14ac:dyDescent="0.3">
@@ -1236,28 +1239,28 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="AE34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="AE35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="AE36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="AE37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="9:31" x14ac:dyDescent="0.3">
@@ -1268,49 +1271,49 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="AE39" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="AE40" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="AE41" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="AE42" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="AE43" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="AE44" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="AE45" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="9:31" x14ac:dyDescent="0.3">
@@ -1321,42 +1324,42 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="AE47" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="AE48" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="AE49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="AE50" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="AE51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="AE52" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="9:31" x14ac:dyDescent="0.3">
@@ -1375,14 +1378,14 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="AE56" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="AE57" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="9:31" x14ac:dyDescent="0.3">
@@ -1397,7 +1400,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="AE60" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="9:31" x14ac:dyDescent="0.3">
@@ -1420,77 +1423,77 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="AE65" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="AE66" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="AE67" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="AE68" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="AE69" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="AE70" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="AE71" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="AE72" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="AE73" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="AE74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="AE75" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="9:31" x14ac:dyDescent="0.3">
@@ -1505,21 +1508,21 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="AE78" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="AE79" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="AE80" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="9:31" x14ac:dyDescent="0.3">
@@ -1534,7 +1537,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="AE83" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="9:31" x14ac:dyDescent="0.3">
@@ -1553,14 +1556,14 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="AE87" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="AE88" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="9:31" x14ac:dyDescent="0.3">
@@ -1571,7 +1574,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="AE90" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="9:31" x14ac:dyDescent="0.3">
@@ -1582,7 +1585,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="AE92" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="9:31" x14ac:dyDescent="0.3">
@@ -1593,7 +1596,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="AE94" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="9:31" x14ac:dyDescent="0.3">
@@ -1604,14 +1607,14 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="AE96" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="AE97" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="9:31" x14ac:dyDescent="0.3">
@@ -1626,7 +1629,7 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="AE100" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="9:31" x14ac:dyDescent="0.3">
@@ -1637,7 +1640,7 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="AE102" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="9:31" x14ac:dyDescent="0.3">
@@ -1648,14 +1651,14 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="AE104" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="AE105" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="9:31" x14ac:dyDescent="0.3">
@@ -1666,7 +1669,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="AE107" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="9:31" x14ac:dyDescent="0.3">
@@ -1681,21 +1684,21 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="AE110" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="AE111" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="AE112" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="9:31" x14ac:dyDescent="0.3">
@@ -1706,7 +1709,7 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="AE114" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="9:31" x14ac:dyDescent="0.3">
@@ -1717,7 +1720,7 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="AE116" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="9:31" x14ac:dyDescent="0.3">
@@ -1824,7 +1827,7 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="AE142" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="9:31" x14ac:dyDescent="0.3">
